--- a/src/test/resources/testdata/HRM.xlsx
+++ b/src/test/resources/testdata/HRM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TesterDocument\HRMTestFinal\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAB501D-4826-4FB5-8BD2-44964A5D3B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4DD3A0-43D2-434C-8C2E-35E58D95FF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4668" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -795,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E3" activeCellId="1" sqref="F8 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1351,7 +1351,7 @@
         <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>100</v>
@@ -1371,7 +1371,7 @@
         <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>100</v>
@@ -1391,7 +1391,7 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
         <v>100</v>
@@ -1411,7 +1411,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>100</v>
@@ -1431,7 +1431,7 @@
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -1451,7 +1451,7 @@
         <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
         <v>100</v>
